--- a/潜水艇攻略文本存档库/4.3/潜水艇探索阈值及收获列表(v1.1).xlsx
+++ b/潜水艇攻略文本存档库/4.3/潜水艇探索阈值及收获列表(v1.1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FFXIV\部队相关\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FFXIV\部队相关\underseaboat\潜水艇攻略文本存档库\4.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="230">
   <si>
     <t>探索目的地</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -633,6 +633,821 @@
   </si>
   <si>
     <r>
+      <t>耐力II、雄略II、桦树枝、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>红莫柯草</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>意力II、武略II、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>竹片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深红水晶</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>刚力III、战技III、金矿、白金矿、钨铁矿、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轻木废材</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深色水晶</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>魔匠III、巨匠III、暗栗树枝、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轻木废材</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深色水晶</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>无属性水晶、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天然粘土</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>石像的碎片</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>博识III、器识III、金矿、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>竹片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深色水晶</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>名匠III、巨匠III、桦树枝、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>竹片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深色水晶</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>咏唱III、刚柔III、金矿、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>竹片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深色水晶</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>耐力III、巧力III、桦树枝、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>竹片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深色水晶</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现了包含优质成分的[物品名称]HQ，即将开始挑选回收对象。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一些额外的发现，不过又不见了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海底火山活动频繁……"探索性能"虽然满足探索的要求，但当前状况进行探索十分困难。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑到"收集性能"，回收量已经算还可以了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以当前"收集性能"回收量基本没有多少指望……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发生了暴风雨……"探索性能"虽然满足探索的要求，但会受到一定的影响。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海流安定……[潜水艇名称]的"探索性能"满足出发探索的要求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"探索性能"处于不安定的状态，不过仍然可以强行探索。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>146210经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>146210经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I 石人岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I 石人岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24级潜水艇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>174980经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H 俘虏岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M 溺没海4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27级潜水艇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200430经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27级潜水艇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200430经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30级潜水艇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜水艇达到20级且完成对J的探索后解锁第二个潜水艇栏位，潜水艇达到30级且完成对O的探索后解锁第三个潜水艇栏位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J 无名沉船</t>
+  </si>
+  <si>
+    <t>N 利米拉拉海沟中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N 利米拉拉海沟中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大：收集性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中：收集性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大：收集性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中：收集性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中：收集性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大：收集性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中：收集性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恩惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恩惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恩惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优：探索性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良：探索性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良：探索性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优：探索性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良：探索性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优：探索性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优：探索性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良：探索性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优：探索性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whale级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级潜水艇可用，重量均为5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15级潜水艇可用，重量均为9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25级潜水艇可用，重量均为12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船首</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舰桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可行性分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为较大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K 深蓝浅滩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L 神秘海盆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O 被发现的残骸 I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>无属性水晶、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>舞海月</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>信力II、咏唱II、金矿、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蓝铁矿</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>信力III、咏唱III、白金矿、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>竹片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深色水晶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深绿水晶</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>耐力III、雄略III、暗栗树枝、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>竹片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深色水晶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深红水晶</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉船首饰(变卖用道具)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>意力III、武略III、暗栗树枝、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轻木废材</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深色水晶</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>魔匠II、巨匠II、桦树枝、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>红莫柯草</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>竹片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深蓝水晶</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>无属性水晶、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天然粘土</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>博识II、器识II、钨铁矿、</t>
     </r>
     <r>
@@ -649,7 +1464,27 @@
   </si>
   <si>
     <r>
-      <t>耐力II、雄略II、桦树枝、</t>
+      <t>刚力II、战技II、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>竹片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
     </r>
     <r>
       <rPr>
@@ -659,13 +1494,32 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>红莫柯草</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>信力II、咏唱II、金矿、</t>
+      <t>深红水晶</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>魔匠IV、巨匠IV、暗栗树枝、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深色水晶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
     </r>
     <r>
       <rPr>
@@ -675,18 +1529,18 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>蓝铁矿</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>刚力II、战技II、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
+      <t>轻木木材</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>魔匠III、巨匠III、桦树枝、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
         <rFont val="黑体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -696,38 +1550,204 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深蓝水晶</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苍天石原石</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、无属性水晶、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>舞海月</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>意力III、武略III、钨铁矿、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深红水晶</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>信力IV、咏唱IV、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轻木木材</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苍天石原石</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="黑体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>、无属性水晶、沉船首饰(变卖用道具)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苍天石原石</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>、</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陈旧的乐谱：The Ambient Abyss</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="黑体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>苍天石原石</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>莫古力的王冠、红莲珊瑚</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>信力III、咏唱III、桦树枝、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>深红水晶</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>意力II、武略II、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>竹片</t>
+      <t>信力IV、咏唱IV、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轻木废材</t>
     </r>
     <r>
       <rPr>
@@ -747,735 +1767,59 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>轻木木材</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>意力IV、武略IV、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轻木废材</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>石粉粘土</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>信力III、咏唱III、钨铁矿、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>深红水晶</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>意力III、武略III、暗栗树枝、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轻木废材</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>深色水晶</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>刚力III、战技III、金矿、白金矿、钨铁矿、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轻木废材</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>深色水晶</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>魔匠III、巨匠III、暗栗树枝、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轻木废材</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>深色水晶</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>魔匠II、巨匠II、桦树枝、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>红莫柯草</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>竹片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>深蓝水晶</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>无属性水晶、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天然粘土</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>无属性水晶、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天然粘土</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>石像的碎片</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>耐力III、雄略III、暗栗树枝、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>竹片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>深色水晶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>深红水晶</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>信力III、咏唱III、白金矿、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>竹片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>深色水晶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>深绿水晶</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>博识III、器识III、金矿、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>竹片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>深色水晶</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>名匠III、巨匠III、桦树枝、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>竹片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>深色水晶</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>咏唱III、刚柔III、金矿、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>竹片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>深色水晶</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>耐力III、巧力III、桦树枝、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>竹片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>深色水晶</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现了包含优质成分的[物品名称]HQ，即将开始挑选回收对象。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有一些额外的发现，不过又不见了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海底火山活动频繁……"探索性能"虽然满足探索的要求，但当前状况进行探索十分困难。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考虑到"收集性能"，回收量已经算还可以了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以当前"收集性能"回收量基本没有多少指望……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发生了暴风雨……"探索性能"虽然满足探索的要求，但会受到一定的影响。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海流安定……[潜水艇名称]的"探索性能"满足出发探索的要求。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"探索性能"处于不安定的状态，不过仍然可以强行探索。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>146210经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>146210经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I 石人岛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I 石人岛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24级潜水艇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>174980经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H 俘虏岛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M 溺没海4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27级潜水艇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200430经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27级潜水艇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200430经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30级潜水艇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潜水艇达到20级且完成对J的探索后解锁第二个潜水艇栏位，潜水艇达到30级且完成对O的探索后解锁第三个潜水艇栏位。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J 无名沉船</t>
-  </si>
-  <si>
-    <t>N 利米拉拉海沟中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N 利米拉拉海沟中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大：收集性能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中：收集性能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大：收集性能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中：收集性能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中：收集性能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大：收集性能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中：收集性能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恩惠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恩惠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恩惠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>探索性能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>探索性能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优：探索性能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>良：探索性能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>良：探索性能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优：探索性能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>良：探索性能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优：探索性能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优：探索性能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>良：探索性能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优：探索性能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>whale级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1级潜水艇可用，重量均为5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15级潜水艇可用，重量均为9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25级潜水艇可用，重量均为12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>船体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>船尾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>船首</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舰桥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>试运算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可行性分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为最大值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为较大值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K 深蓝浅滩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L 神秘海盆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O 被发现的残骸 I</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1486,7 +1830,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1594,6 +1938,13 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="黑体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1790,7 +2141,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1884,15 +2235,6 @@
     <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1913,18 +2255,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1953,11 +2283,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2250,8 +2604,8 @@
   </sheetPr>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2293,7 +2647,7 @@
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="10" t="s">
         <v>27</v>
       </c>
@@ -2306,7 +2660,7 @@
       <c r="F2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="34" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2314,37 +2668,37 @@
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" s="40"/>
+      <c r="D3" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="37"/>
       <c r="F3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="38"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="39"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="10" t="s">
         <v>29</v>
       </c>
@@ -2357,7 +2711,7 @@
       <c r="F5" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="34" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2365,37 +2719,37 @@
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="E6" s="40"/>
+      <c r="D6" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="37"/>
       <c r="F6" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="38"/>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="E7" s="40"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="39"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="51" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -2410,7 +2764,7 @@
       <c r="F8" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="34" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2418,37 +2772,37 @@
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="42"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="E9" s="40"/>
+      <c r="D9" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="37"/>
       <c r="F9" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="38"/>
+      <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="40"/>
+      <c r="E10" s="37"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="39"/>
+      <c r="G10" s="36"/>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -2463,7 +2817,7 @@
       <c r="F11" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="34" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2471,37 +2825,37 @@
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="E12" s="40"/>
+      <c r="D12" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="37"/>
       <c r="F12" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="38"/>
+      <c r="G12" s="35"/>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="36"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" s="40"/>
+      <c r="D13" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" s="37"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="39"/>
+      <c r="G13" s="36"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -2516,7 +2870,7 @@
       <c r="F14" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="34" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2524,37 +2878,37 @@
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="35"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15" s="40"/>
+      <c r="D15" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="E15" s="37"/>
       <c r="F15" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="38"/>
+      <c r="G15" s="35"/>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="36"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="40"/>
+      <c r="D16" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="37"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="39"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -2569,7 +2923,7 @@
       <c r="F17" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="34" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2577,44 +2931,44 @@
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="E18" s="40"/>
+      <c r="D18" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="E18" s="37"/>
       <c r="F18" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="38"/>
+      <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="36"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="40"/>
+      <c r="D19" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="E19" s="37"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="39"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>81</v>
+        <v>208</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>50</v>
@@ -2622,7 +2976,7 @@
       <c r="F20" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="37" t="s">
+      <c r="G20" s="34" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2630,44 +2984,44 @@
       <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="35"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" s="40"/>
+      <c r="D21" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="37"/>
       <c r="F21" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="38"/>
+      <c r="G21" s="35"/>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="36"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="E22" s="40"/>
+      <c r="D22" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="E22" s="37"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="39"/>
+      <c r="G22" s="36"/>
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>144</v>
+        <v>215</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>51</v>
@@ -2675,7 +3029,7 @@
       <c r="F23" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="34" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2683,44 +3037,44 @@
       <c r="A24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="E24" s="40"/>
+      <c r="D24" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="E24" s="37"/>
       <c r="F24" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="38"/>
+      <c r="G24" s="35"/>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="36"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" s="40"/>
+      <c r="D25" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="37"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="39"/>
+      <c r="G25" s="36"/>
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B26" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="31" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>52</v>
@@ -2728,7 +3082,7 @@
       <c r="F26" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="34" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2736,37 +3090,37 @@
       <c r="A27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="35"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="40"/>
+      <c r="D27" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="37"/>
       <c r="F27" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G27" s="38"/>
+      <c r="G27" s="35"/>
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="36"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="E28" s="40"/>
+      <c r="D28" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="E28" s="37"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="39"/>
+      <c r="G28" s="36"/>
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="31" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -2781,7 +3135,7 @@
       <c r="F29" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="34" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2789,345 +3143,352 @@
       <c r="A30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="35"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="E30" s="40"/>
+      <c r="E30" s="37"/>
       <c r="F30" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="38"/>
+      <c r="G30" s="35"/>
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B31" s="36"/>
+        <v>152</v>
+      </c>
+      <c r="B31" s="33"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="E31" s="40"/>
+      <c r="E31" s="37"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="39"/>
+      <c r="G31" s="36"/>
     </row>
     <row r="32" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>163</v>
+        <v>205</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>155</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="D32" s="16"/>
+        <v>190</v>
+      </c>
+      <c r="D32" s="56" t="s">
+        <v>220</v>
+      </c>
       <c r="E32" s="16" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="G32" s="37" t="s">
-        <v>185</v>
+        <v>170</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="35"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
+        <v>189</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="E33" s="37"/>
       <c r="F33" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="G33" s="38"/>
+        <v>171</v>
+      </c>
+      <c r="G33" s="35"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B34" s="36"/>
+        <v>153</v>
+      </c>
+      <c r="B34" s="33"/>
       <c r="C34" s="16"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
+      <c r="D34" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="E34" s="37"/>
       <c r="F34" s="16"/>
-      <c r="G34" s="39"/>
+      <c r="G34" s="36"/>
     </row>
     <row r="35" spans="1:7" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>166</v>
+        <v>206</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>158</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="D35" s="16"/>
+        <v>188</v>
+      </c>
+      <c r="D35" s="56" t="s">
+        <v>224</v>
+      </c>
       <c r="E35" s="16" t="s">
         <v>117</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="G35" s="37" t="s">
-        <v>187</v>
+        <v>170</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B36" s="35"/>
+        <v>156</v>
+      </c>
+      <c r="B36" s="32"/>
       <c r="C36" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
+        <v>184</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="E36" s="37"/>
       <c r="F36" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="G36" s="38"/>
+        <v>171</v>
+      </c>
+      <c r="G36" s="35"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B37" s="36"/>
+        <v>157</v>
+      </c>
+      <c r="B37" s="33"/>
       <c r="C37" s="16"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
+      <c r="D37" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="E37" s="37"/>
       <c r="F37" s="16"/>
-      <c r="G37" s="39"/>
+      <c r="G37" s="36"/>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B38" s="34" t="s">
-        <v>166</v>
+        <v>159</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>158</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D38" s="16"/>
+        <v>187</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>223</v>
+      </c>
       <c r="E38" s="16" t="s">
         <v>117</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="G38" s="37" t="s">
-        <v>186</v>
+        <v>172</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B39" s="35"/>
+        <v>160</v>
+      </c>
+      <c r="B39" s="32"/>
       <c r="C39" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
+        <v>186</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="E39" s="37"/>
       <c r="F39" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="G39" s="38"/>
+        <v>173</v>
+      </c>
+      <c r="G39" s="35"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B40" s="36"/>
+        <v>161</v>
+      </c>
+      <c r="B40" s="33"/>
       <c r="C40" s="16"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
+      <c r="D40" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="E40" s="37"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="39"/>
+      <c r="G40" s="36"/>
     </row>
     <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B41" s="34" t="s">
-        <v>175</v>
+        <v>168</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>167</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D41" s="16"/>
+        <v>185</v>
+      </c>
+      <c r="D41" s="56" t="s">
+        <v>225</v>
+      </c>
       <c r="E41" s="16" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="G41" s="37" t="s">
-        <v>185</v>
+        <v>170</v>
+      </c>
+      <c r="G41" s="34" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B42" s="35"/>
+        <v>162</v>
+      </c>
+      <c r="B42" s="32"/>
       <c r="C42" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
+        <v>184</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="E42" s="37"/>
       <c r="F42" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="G42" s="38"/>
+        <v>174</v>
+      </c>
+      <c r="G42" s="35"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B43" s="36"/>
+        <v>163</v>
+      </c>
+      <c r="B43" s="33"/>
       <c r="C43" s="16"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
+      <c r="D43" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="E43" s="37"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="39"/>
+      <c r="G43" s="36"/>
     </row>
     <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B44" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="G44" s="34" t="s">
         <v>177</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="G44" s="37" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B45" s="35"/>
+        <v>164</v>
+      </c>
+      <c r="B45" s="32"/>
       <c r="C45" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
+        <v>183</v>
+      </c>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
       <c r="F45" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="G45" s="38"/>
+        <v>176</v>
+      </c>
+      <c r="G45" s="35"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B46" s="36"/>
+        <v>165</v>
+      </c>
+      <c r="B46" s="33"/>
       <c r="C46" s="16"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
+      <c r="D46" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" s="37"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="39"/>
+      <c r="G46" s="36"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
       <c r="D47" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="E47" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="F47" s="46"/>
-      <c r="G47" s="47"/>
+      <c r="E47" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="F47" s="39"/>
+      <c r="G47" s="40"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="44" t="s">
+      <c r="A48" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
       <c r="D48" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="50"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="43"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="44" t="s">
+      <c r="A49" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B49" s="44"/>
-      <c r="C49" s="44"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
       <c r="D49" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E49" s="51"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="53"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="E47:G49"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:B10"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -3143,20 +3504,41 @@
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="G41:G43"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="E47:G49"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A47:C47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3195,7 +3577,7 @@
         <v>82</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>85</v>
@@ -3204,7 +3586,7 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="54"/>
       <c r="B3" s="11" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>86</v>
@@ -3213,7 +3595,7 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="54"/>
       <c r="B4" s="11" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>87</v>
@@ -3240,7 +3622,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="54"/>
       <c r="B7" s="11" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>90</v>
@@ -3251,7 +3633,7 @@
         <v>83</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>104</v>
@@ -3296,7 +3678,7 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="54"/>
       <c r="B13" s="11" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>110</v>
@@ -3305,7 +3687,7 @@
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="54"/>
       <c r="B14" s="11" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>111</v>
@@ -3334,7 +3716,7 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="54"/>
       <c r="B17" s="11" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>101</v>
@@ -3374,19 +3756,19 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>117</v>
@@ -3406,7 +3788,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B2" s="18">
         <v>1</v>
@@ -3443,19 +3825,19 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="19" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>117</v>
@@ -3473,13 +3855,13 @@
         <v>112</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="M4" s="29" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="N4" s="28" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -6866,7 +7248,7 @@
         <v>112</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="P1" s="11" t="s">
         <v>117</v>
@@ -7110,13 +7492,13 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.15">
